--- a/Data/aearep-1015/candidatepackages.xlsx
+++ b/Data/aearep-1015/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,27 +25,15 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>coefplot</t>
   </si>
   <si>
     <t>ineqdeco</t>
   </si>
   <si>
-    <t>boottest</t>
-  </si>
-  <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -55,33 +43,21 @@
     <t>index</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>delta</t>
   </si>
   <si>
+    <t>pre</t>
+  </si>
+  <si>
     <t>cv</t>
   </si>
   <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>head</t>
   </si>
   <si>
     <t>tr</t>
   </si>
   <si>
-    <t>head</t>
-  </si>
-  <si>
     <t>pindex</t>
   </si>
   <si>
@@ -97,24 +73,12 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1015</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1015/119149/EUdisparities_replication</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1015/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>Descriptives.do</t>
   </si>
   <si>
@@ -158,9 +122,6 @@
   </si>
   <si>
     <t>Tables_A3_A4.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -204,7 +165,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -212,13 +173,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -226,7 +187,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -250,7 +211,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -262,7 +223,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -274,7 +235,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>293</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -286,10 +247,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>89</v>
+        <v>499</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D7"/>
     </row>
@@ -298,10 +259,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>166</v>
+        <v>746</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.24661156535148621</v>
       </c>
       <c r="D8"/>
     </row>
@@ -310,10 +271,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>267</v>
+        <v>998</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D9"/>
     </row>
@@ -322,10 +283,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>279</v>
+        <v>1125</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D10"/>
     </row>
@@ -334,10 +295,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>565</v>
+        <v>1428</v>
       </c>
       <c r="C11">
-        <v>0.18733422458171844</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D11"/>
     </row>
@@ -346,10 +307,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>698</v>
+        <v>1503</v>
       </c>
       <c r="C12">
-        <v>0.23143236339092255</v>
+        <v>0.49685949087142944</v>
       </c>
       <c r="D12"/>
     </row>
@@ -358,10 +319,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>985</v>
+        <v>1971</v>
       </c>
       <c r="C13">
-        <v>0.32659152150154114</v>
+        <v>0.65157026052474976</v>
       </c>
       <c r="D13"/>
     </row>
@@ -370,10 +331,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1124</v>
+        <v>1975</v>
       </c>
       <c r="C14">
-        <v>0.37267905473709106</v>
+        <v>0.6528925895690918</v>
       </c>
       <c r="D14"/>
     </row>
@@ -382,108 +343,12 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1194</v>
+        <v>2136</v>
       </c>
       <c r="C15">
-        <v>0.39588859677314758</v>
+        <v>0.70611572265625</v>
       </c>
       <c r="D15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1424</v>
-      </c>
-      <c r="C16">
-        <v>0.47214853763580322</v>
-      </c>
-      <c r="D16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1553</v>
-      </c>
-      <c r="C17">
-        <v>0.51492041349411011</v>
-      </c>
-      <c r="D17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1798</v>
-      </c>
-      <c r="C18">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1817</v>
-      </c>
-      <c r="C19">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1859</v>
-      </c>
-      <c r="C20">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D20"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1951</v>
-      </c>
-      <c r="C21">
-        <v>0.64688330888748169</v>
-      </c>
-      <c r="D21"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>2133</v>
-      </c>
-      <c r="C22">
-        <v>0.70722812414169312</v>
-      </c>
-      <c r="D22"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>2168</v>
-      </c>
-      <c r="C23">
-        <v>0.71883291006088257</v>
-      </c>
-      <c r="D23"/>
     </row>
   </sheetData>
 </worksheet>
@@ -491,159 +356,135 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
